--- a/Таймирование.xlsx
+++ b/Таймирование.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="SMC" sheetId="4" r:id="rId1"/>
+    <sheet name="Flex" sheetId="5" r:id="rId2"/>
+    <sheet name="Regex" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,15 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
-    <t>Regex</t>
+    <t>Количество строк</t>
   </si>
   <si>
-    <t>Flex</t>
+    <t>Время</t>
   </si>
   <si>
-    <t>SMC</t>
+    <t>По количеству строк</t>
+  </si>
+  <si>
+    <t>По количеству длин строк (количество номеров)</t>
+  </si>
+  <si>
+    <t>Количество номеров</t>
   </si>
 </sst>
 </file>
@@ -125,11 +131,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время</a:t>
+              <a:t>Зависимость</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> работы (Количество строк)</a:t>
+              <a:t> времени работы от количества строк</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -174,9 +180,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Количество строк</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -189,26 +192,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SMC!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$3:$I$3</c:f>
+              <c:f>SMC!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>5182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>11431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>15695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>19495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>24587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -223,73 +280,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353235296"/>
-        <c:axId val="353236080"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Время работы</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.124789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1455929999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.681150000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>133.17422866000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1415.8030977999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="407808384"/>
-        <c:axId val="405730040"/>
+        <c:axId val="354234216"/>
+        <c:axId val="354235784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353235296"/>
+        <c:axId val="354234216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,7 +328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353236080"/>
+        <c:crossAx val="354235784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -340,7 +336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353236080"/>
+        <c:axId val="354235784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,68 +387,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353235296"/>
+        <c:crossAx val="354234216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="405730040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="407808384"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="407808384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405730040"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -461,38 +399,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -525,7 +431,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -565,11 +471,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время работы (Количество</a:t>
+              <a:t>Зависимость</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> строк)</a:t>
+              <a:t> времени работы от длины строк</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -614,9 +520,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Количество строк</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -629,26 +532,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SMC!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист2!$E$3:$I$3</c:f>
+              <c:f>SMC!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,73 +620,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="350587960"/>
-        <c:axId val="350593056"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Время работы</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$E$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21786</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="406017488"/>
-        <c:axId val="407809168"/>
+        <c:axId val="350912992"/>
+        <c:axId val="350913384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="350587960"/>
+        <c:axId val="350912992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +668,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350593056"/>
+        <c:crossAx val="350913384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350593056"/>
+        <c:axId val="350913384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,68 +727,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350587960"/>
+        <c:crossAx val="350912992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="407809168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="406017488"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="406017488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407809168"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -901,38 +739,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1004,14 +810,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Время</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Зависимость времени работы от количества строк</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> работы (Количество строк)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1054,9 +860,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Количество строк</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1069,26 +872,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Лист3!$E$3:$I$3</c:f>
+              <c:f>Flex!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flex!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,78 +930,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="321631816"/>
-        <c:axId val="321632208"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Время работы</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист3!$E$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5834</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="406242616"/>
-        <c:axId val="350913384"/>
+        <c:axId val="350221360"/>
+        <c:axId val="283098696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="321631816"/>
+        <c:axId val="350221360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1211,7 +978,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321632208"/>
+        <c:crossAx val="283098696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1219,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321632208"/>
+        <c:axId val="283098696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,19 +1037,282 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321631816"/>
+        <c:crossAx val="350221360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="350913384"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времени работы от длины строк</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Flex!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Flex!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="455797024"/>
+        <c:axId val="455796632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="455797024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455796632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455796632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1312,26 +1342,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406242616"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="455797024"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="406242616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="350913384"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1340,8 +1354,88 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени работы от количества строк</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1356,7 +1450,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1371,7 +1465,538 @@
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Regex!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Regex!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451938872"/>
+        <c:axId val="451940048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451938872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451940048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451940048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451938872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени работы от длины строк</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Regex!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Regex!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="458046312"/>
+        <c:axId val="458055720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458046312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458055720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458055720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458046312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1529,8 +2154,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1638,6 +2383,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1648,6 +2398,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1679,6 +2434,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1734,23 +2492,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1855,8 +2612,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1988,20 +2745,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2035,7 +2791,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2143,6 +2899,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2153,6 +2914,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2184,6 +2950,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3053,20 +3822,1633 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3085,27 +5467,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3120,27 +5532,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3149,7 +5556,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3421,52 +5828,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3">
+        <v>5182</v>
+      </c>
       <c r="E3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>100000</v>
-      </c>
-      <c r="I3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <v>11431</v>
+      </c>
+      <c r="E4">
+        <v>200000</v>
+      </c>
+      <c r="F4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>300000</v>
+      </c>
+      <c r="C5">
+        <v>15695</v>
+      </c>
+      <c r="E5">
+        <v>300000</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>400000</v>
+      </c>
+      <c r="C6">
+        <v>19495</v>
+      </c>
+      <c r="E6">
+        <v>400000</v>
+      </c>
+      <c r="F6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>500000</v>
+      </c>
+      <c r="C7">
+        <v>24587</v>
+      </c>
+      <c r="E7">
+        <v>500000</v>
+      </c>
+      <c r="F7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>600000</v>
+      </c>
+      <c r="C8">
+        <v>29026</v>
+      </c>
+      <c r="E8">
+        <v>600000</v>
+      </c>
+      <c r="F8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>700000</v>
+      </c>
+      <c r="C9">
+        <v>35364</v>
+      </c>
+      <c r="E9">
+        <v>700000</v>
+      </c>
+      <c r="F9">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>800000</v>
+      </c>
+      <c r="C10">
+        <v>39637</v>
+      </c>
+      <c r="E10">
+        <v>800000</v>
+      </c>
+      <c r="F10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>900000</v>
+      </c>
+      <c r="C11">
+        <v>43937</v>
+      </c>
+      <c r="E11">
+        <v>900000</v>
+      </c>
+      <c r="F11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E4">
-        <v>0.124789</v>
-      </c>
-      <c r="F4">
-        <v>2.1455929999999999</v>
-      </c>
-      <c r="G4">
-        <v>12.681150000000001</v>
-      </c>
-      <c r="H4">
-        <v>133.17422866000001</v>
-      </c>
-      <c r="I4">
-        <v>1415.8030977999999</v>
+      <c r="C12">
+        <v>49802</v>
+      </c>
+      <c r="E12">
+        <v>1000000</v>
+      </c>
+      <c r="F12">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E3:F12">
+    <sortCondition ref="E5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3474,49 +6009,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3">
+        <v>2027</v>
+      </c>
       <c r="E3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>100000</v>
-      </c>
-      <c r="I3">
-        <v>1000000</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <v>4587</v>
+      </c>
       <c r="E4">
-        <v>1</v>
+        <v>200000</v>
       </c>
       <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>222</v>
-      </c>
-      <c r="H4">
-        <v>1956</v>
-      </c>
-      <c r="I4">
-        <v>21786</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>300000</v>
+      </c>
+      <c r="C5">
+        <v>6672</v>
+      </c>
+      <c r="E5">
+        <v>300000</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>400000</v>
+      </c>
+      <c r="C6">
+        <v>8705</v>
+      </c>
+      <c r="E6">
+        <v>400000</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>500000</v>
+      </c>
+      <c r="C7">
+        <v>10688</v>
+      </c>
+      <c r="E7">
+        <v>500000</v>
+      </c>
+      <c r="F7">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3527,49 +6117,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3">
+        <v>940</v>
+      </c>
       <c r="E3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3">
-        <v>10000</v>
-      </c>
-      <c r="H3">
-        <v>100000</v>
-      </c>
-      <c r="I3">
-        <v>1000000</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>200000</v>
+      </c>
+      <c r="C4">
+        <v>1961</v>
+      </c>
       <c r="E4">
-        <v>6</v>
+        <v>200000</v>
       </c>
       <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4">
-        <v>514</v>
-      </c>
-      <c r="H4">
-        <v>5834</v>
-      </c>
-      <c r="I4">
-        <v>56991</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>300000</v>
+      </c>
+      <c r="C5">
+        <v>3029</v>
+      </c>
+      <c r="E5">
+        <v>300000</v>
+      </c>
+      <c r="F5">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>400000</v>
+      </c>
+      <c r="C6">
+        <v>3897</v>
+      </c>
+      <c r="E6">
+        <v>400000</v>
+      </c>
+      <c r="F6">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>500000</v>
+      </c>
+      <c r="C7">
+        <v>5201</v>
+      </c>
+      <c r="E7">
+        <v>500000</v>
+      </c>
+      <c r="F7">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>600000</v>
+      </c>
+      <c r="C8">
+        <v>5467</v>
+      </c>
+      <c r="E8">
+        <v>600000</v>
+      </c>
+      <c r="F8">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>700000</v>
+      </c>
+      <c r="C9">
+        <v>6583</v>
+      </c>
+      <c r="E9">
+        <v>700000</v>
+      </c>
+      <c r="F9">
+        <v>2527</v>
       </c>
     </row>
   </sheetData>
